--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.60083439227405</v>
+        <v>178.6795653333333</v>
       </c>
       <c r="H2">
-        <v>1.60083439227405</v>
+        <v>536.038696</v>
       </c>
       <c r="I2">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="J2">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>82.01289219446274</v>
+        <v>42719.41310750408</v>
       </c>
       <c r="R2">
-        <v>82.01289219446274</v>
+        <v>384474.7179675367</v>
       </c>
       <c r="S2">
-        <v>0.06020555592313272</v>
+        <v>0.3979062503196</v>
       </c>
       <c r="T2">
-        <v>0.06020555592313272</v>
+        <v>0.3979062503196</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.60083439227405</v>
+        <v>178.6795653333333</v>
       </c>
       <c r="H3">
-        <v>1.60083439227405</v>
+        <v>536.038696</v>
       </c>
       <c r="I3">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="J3">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>187.341884417507</v>
+        <v>20914.66998575479</v>
       </c>
       <c r="R3">
-        <v>187.341884417507</v>
+        <v>188232.0298717931</v>
       </c>
       <c r="S3">
-        <v>0.1375274301057365</v>
+        <v>0.1948078708328911</v>
       </c>
       <c r="T3">
-        <v>0.1375274301057365</v>
+        <v>0.1948078708328911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.60083439227405</v>
+        <v>178.6795653333333</v>
       </c>
       <c r="H4">
-        <v>1.60083439227405</v>
+        <v>536.038696</v>
       </c>
       <c r="I4">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="J4">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>221.4506418602969</v>
+        <v>30582.58534736189</v>
       </c>
       <c r="R4">
-        <v>221.4506418602969</v>
+        <v>275243.268126257</v>
       </c>
       <c r="S4">
-        <v>0.1625666239293279</v>
+        <v>0.2848588258931467</v>
       </c>
       <c r="T4">
-        <v>0.1625666239293279</v>
+        <v>0.2848588258931467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.60083439227405</v>
+        <v>178.6795653333333</v>
       </c>
       <c r="H5">
-        <v>1.60083439227405</v>
+        <v>536.038696</v>
       </c>
       <c r="I5">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="J5">
-        <v>0.4265480427592544</v>
+        <v>0.9735959054718317</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>90.24458779688167</v>
+        <v>10309.07261576938</v>
       </c>
       <c r="R5">
-        <v>90.24458779688167</v>
+        <v>92781.65354192437</v>
       </c>
       <c r="S5">
-        <v>0.06624843280105727</v>
+        <v>0.09602295842619382</v>
       </c>
       <c r="T5">
-        <v>0.06624843280105727</v>
+        <v>0.09602295842619382</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.67994542379549</v>
+        <v>1.627176</v>
       </c>
       <c r="H6">
-        <v>1.67994542379549</v>
+        <v>4.881528</v>
       </c>
       <c r="I6">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="J6">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>86.06585640542274</v>
+        <v>389.031636678424</v>
       </c>
       <c r="R6">
-        <v>86.06585640542274</v>
+        <v>3501.284730105816</v>
       </c>
       <c r="S6">
-        <v>0.06318083160148372</v>
+        <v>0.003623601275065665</v>
       </c>
       <c r="T6">
-        <v>0.06318083160148372</v>
+        <v>0.003623601275065665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.67994542379549</v>
+        <v>1.627176</v>
       </c>
       <c r="H7">
-        <v>1.67994542379549</v>
+        <v>4.881528</v>
       </c>
       <c r="I7">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="J7">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>196.6000623995441</v>
+        <v>190.463016771128</v>
       </c>
       <c r="R7">
-        <v>196.6000623995441</v>
+        <v>1714.167150940152</v>
       </c>
       <c r="S7">
-        <v>0.1443238463438348</v>
+        <v>0.001774051170535534</v>
       </c>
       <c r="T7">
-        <v>0.1443238463438348</v>
+        <v>0.001774051170535534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.67994542379549</v>
+        <v>1.627176</v>
       </c>
       <c r="H8">
-        <v>1.67994542379549</v>
+        <v>4.881528</v>
       </c>
       <c r="I8">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="J8">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>232.3944276717489</v>
+        <v>278.50554036408</v>
       </c>
       <c r="R8">
-        <v>232.3944276717489</v>
+        <v>2506.54986327672</v>
       </c>
       <c r="S8">
-        <v>0.1706004426504124</v>
+        <v>0.002594115583484892</v>
       </c>
       <c r="T8">
-        <v>0.1706004426504124</v>
+        <v>0.002594115583484892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.67994542379549</v>
+        <v>1.627176</v>
       </c>
       <c r="H9">
-        <v>1.67994542379549</v>
+        <v>4.881528</v>
       </c>
       <c r="I9">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="J9">
-        <v>0.4476274597301756</v>
+        <v>0.00886621751136806</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N9">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q9">
-        <v>94.70435107051846</v>
+        <v>93.881331708768</v>
       </c>
       <c r="R9">
-        <v>94.70435107051846</v>
+        <v>844.931985378912</v>
       </c>
       <c r="S9">
-        <v>0.06952233913444472</v>
+        <v>0.0008744494822819677</v>
       </c>
       <c r="T9">
-        <v>0.06952233913444472</v>
+        <v>0.0008744494822819677</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.472219217564681</v>
+        <v>2.587116666666667</v>
       </c>
       <c r="H10">
-        <v>0.472219217564681</v>
+        <v>7.76135</v>
       </c>
       <c r="I10">
-        <v>0.1258244975105701</v>
+        <v>0.01409677815672808</v>
       </c>
       <c r="J10">
-        <v>0.1258244975105701</v>
+        <v>0.01409677815672808</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N10">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q10">
-        <v>24.19242363182299</v>
+        <v>618.5380260717723</v>
       </c>
       <c r="R10">
-        <v>24.19242363182299</v>
+        <v>5566.84223464595</v>
       </c>
       <c r="S10">
-        <v>0.01775962626007934</v>
+        <v>0.005761318537193866</v>
       </c>
       <c r="T10">
-        <v>0.01775962626007934</v>
+        <v>0.005761318537193867</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.472219217564681</v>
+        <v>2.587116666666667</v>
       </c>
       <c r="H11">
-        <v>0.472219217564681</v>
+        <v>7.76135</v>
       </c>
       <c r="I11">
-        <v>0.1258244975105701</v>
+        <v>0.01409677815672808</v>
       </c>
       <c r="J11">
-        <v>0.1258244975105701</v>
+        <v>0.01409677815672808</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N11">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q11">
-        <v>55.26270456437276</v>
+        <v>302.8252906091278</v>
       </c>
       <c r="R11">
-        <v>55.26270456437276</v>
+        <v>2725.42761548215</v>
       </c>
       <c r="S11">
-        <v>0.04056827848754421</v>
+        <v>0.002820639777634373</v>
       </c>
       <c r="T11">
-        <v>0.04056827848754421</v>
+        <v>0.002820639777634374</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.472219217564681</v>
+        <v>2.587116666666667</v>
       </c>
       <c r="H12">
-        <v>0.472219217564681</v>
+        <v>7.76135</v>
       </c>
       <c r="I12">
-        <v>0.1258244975105701</v>
+        <v>0.01409677815672808</v>
       </c>
       <c r="J12">
-        <v>0.1258244975105701</v>
+        <v>0.01409677815672808</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N12">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q12">
-        <v>65.32421425548914</v>
+        <v>442.8078617401667</v>
       </c>
       <c r="R12">
-        <v>65.32421425548914</v>
+        <v>3985.2707556615</v>
       </c>
       <c r="S12">
-        <v>0.04795441947307755</v>
+        <v>0.004124495236712863</v>
       </c>
       <c r="T12">
-        <v>0.04795441947307755</v>
+        <v>0.004124495236712863</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.587116666666667</v>
+      </c>
+      <c r="H13">
+        <v>7.76135</v>
+      </c>
+      <c r="I13">
+        <v>0.01409677815672808</v>
+      </c>
+      <c r="J13">
+        <v>0.01409677815672808</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>57.695868</v>
+      </c>
+      <c r="N13">
+        <v>173.087604</v>
+      </c>
+      <c r="O13">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="P13">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="Q13">
+        <v>149.2659417006</v>
+      </c>
+      <c r="R13">
+        <v>1343.3934753054</v>
+      </c>
+      <c r="S13">
+        <v>0.001390324605186972</v>
+      </c>
+      <c r="T13">
+        <v>0.001390324605186972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.631529</v>
+      </c>
+      <c r="H14">
+        <v>1.894587</v>
+      </c>
+      <c r="I14">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="J14">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>239.0839323333333</v>
+      </c>
+      <c r="N14">
+        <v>717.251797</v>
+      </c>
+      <c r="O14">
+        <v>0.4086975387666237</v>
+      </c>
+      <c r="P14">
+        <v>0.4086975387666237</v>
+      </c>
+      <c r="Q14">
+        <v>150.9884367025377</v>
+      </c>
+      <c r="R14">
+        <v>1358.895930322839</v>
+      </c>
+      <c r="S14">
+        <v>0.001406368634764122</v>
+      </c>
+      <c r="T14">
+        <v>0.001406368634764122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.631529</v>
+      </c>
+      <c r="H15">
+        <v>1.894587</v>
+      </c>
+      <c r="I15">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="J15">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>117.0512696666667</v>
+      </c>
+      <c r="N15">
+        <v>351.153809</v>
+      </c>
+      <c r="O15">
+        <v>0.2000910950200451</v>
+      </c>
+      <c r="P15">
+        <v>0.2000910950200451</v>
+      </c>
+      <c r="Q15">
+        <v>73.92127128132033</v>
+      </c>
+      <c r="R15">
+        <v>665.291441531883</v>
+      </c>
+      <c r="S15">
+        <v>0.0006885332389840651</v>
+      </c>
+      <c r="T15">
+        <v>0.0006885332389840652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.472219217564681</v>
-      </c>
-      <c r="H13">
-        <v>0.472219217564681</v>
-      </c>
-      <c r="I13">
-        <v>0.1258244975105701</v>
-      </c>
-      <c r="J13">
-        <v>0.1258244975105701</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>56.3734688812411</v>
-      </c>
-      <c r="N13">
-        <v>56.3734688812411</v>
-      </c>
-      <c r="O13">
-        <v>0.155312945225371</v>
-      </c>
-      <c r="P13">
-        <v>0.155312945225371</v>
-      </c>
-      <c r="Q13">
-        <v>26.62063536650657</v>
-      </c>
-      <c r="R13">
-        <v>26.62063536650657</v>
-      </c>
-      <c r="S13">
-        <v>0.019542173289869</v>
-      </c>
-      <c r="T13">
-        <v>0.019542173289869</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.631529</v>
+      </c>
+      <c r="H16">
+        <v>1.894587</v>
+      </c>
+      <c r="I16">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="J16">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>171.15883</v>
+      </c>
+      <c r="N16">
+        <v>513.47649</v>
+      </c>
+      <c r="O16">
+        <v>0.2925842480357353</v>
+      </c>
+      <c r="P16">
+        <v>0.2925842480357353</v>
+      </c>
+      <c r="Q16">
+        <v>108.09176475107</v>
+      </c>
+      <c r="R16">
+        <v>972.8258827596301</v>
+      </c>
+      <c r="S16">
+        <v>0.001006811322390836</v>
+      </c>
+      <c r="T16">
+        <v>0.001006811322390836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.631529</v>
+      </c>
+      <c r="H17">
+        <v>1.894587</v>
+      </c>
+      <c r="I17">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="J17">
+        <v>0.003441098860072149</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>57.695868</v>
+      </c>
+      <c r="N17">
+        <v>173.087604</v>
+      </c>
+      <c r="O17">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="P17">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="Q17">
+        <v>36.436613822172</v>
+      </c>
+      <c r="R17">
+        <v>327.929524399548</v>
+      </c>
+      <c r="S17">
+        <v>0.0003393856639331263</v>
+      </c>
+      <c r="T17">
+        <v>0.0003393856639331263</v>
       </c>
     </row>
   </sheetData>
